--- a/processeddata/shock_metadata.xlsx
+++ b/processeddata/shock_metadata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>country</t>
   </si>
@@ -75,12 +75,30 @@
   </si>
   <si>
     <t>Uganda</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>2008-2009</t>
+  </si>
+  <si>
+    <t>no coping</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,11 +128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,7 +426,7 @@
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +451,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -441,7 +463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -449,7 +471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -457,7 +479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -465,7 +487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -473,7 +495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -481,7 +503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -489,12 +511,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>2015</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2015</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>

--- a/processeddata/shock_metadata.xlsx
+++ b/processeddata/shock_metadata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>country</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>2014-2015</t>
   </si>
 </sst>
 </file>
@@ -414,14 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -457,111 +467,187 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>2015</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2015</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>2015</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>2011</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>2014</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>2015</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2015</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>2015</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I21">
+    <sortCondition ref="A2:A21"/>
+    <sortCondition ref="B2:B21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/processeddata/shock_metadata.xlsx
+++ b/processeddata/shock_metadata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>country</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>2014-2015</t>
+  </si>
+  <si>
+    <t>2016-2017</t>
+  </si>
+  <si>
+    <t>no data??</t>
   </si>
 </sst>
 </file>
@@ -423,17 +429,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -580,6 +586,18 @@
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>2008</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>2009</v>
+      </c>
       <c r="I14" t="s">
         <v>20</v>
       </c>
@@ -591,6 +609,18 @@
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>201</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>2011</v>
+      </c>
       <c r="I15" t="s">
         <v>20</v>
       </c>
@@ -602,16 +632,43 @@
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>2012</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>2014</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>2015</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -619,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -627,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -635,12 +692,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>2016</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>

--- a/processeddata/shock_metadata.xlsx
+++ b/processeddata/shock_metadata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>country</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>no data??</t>
+  </si>
+  <si>
+    <t>recall_years</t>
+  </si>
+  <si>
+    <t>spatial_representitiveness</t>
+  </si>
+  <si>
+    <t>admin2</t>
   </si>
 </sst>
 </file>
@@ -114,10 +123,25 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,12 +167,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,38 +469,47 @@
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -490,16 +528,22 @@
       <c r="F2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -507,7 +551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -515,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -523,7 +567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -531,7 +575,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -539,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -547,7 +591,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -555,7 +599,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -563,7 +607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -571,7 +615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -579,7 +623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -598,11 +642,11 @@
       <c r="F14">
         <v>2009</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -621,11 +665,11 @@
       <c r="F15">
         <v>2011</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -645,30 +689,30 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>2014</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>2015</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -676,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -684,7 +728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -692,7 +736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -700,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>

--- a/processeddata/shock_metadata.xlsx
+++ b/processeddata/shock_metadata.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="administrative_units" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>country</t>
   </si>
@@ -114,6 +115,36 @@
   </si>
   <si>
     <t>admin2</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>admin3</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>woreda</t>
+  </si>
+  <si>
+    <t>Nigeria (post-harvest)</t>
+  </si>
+  <si>
+    <t>LGA</t>
   </si>
 </sst>
 </file>
@@ -167,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -178,6 +209,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +493,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +561,7 @@
         <v>2015</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -540,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -617,10 +649,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2016</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>2016</v>
+      </c>
+      <c r="G13">
+        <v>22000</v>
+      </c>
+      <c r="H13" s="6">
+        <v>4581</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -768,4 +821,82 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/processeddata/shock_metadata.xlsx
+++ b/processeddata/shock_metadata.xlsx
@@ -16,6 +16,7 @@
     <sheet name="administrative_units" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>country</t>
   </si>
@@ -145,6 +146,9 @@
   </si>
   <si>
     <t>LGA</t>
+  </si>
+  <si>
+    <t>national, admin1 (zone), urban/rural</t>
   </si>
 </sst>
 </file>
@@ -493,7 +497,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,6 +642,30 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2011</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>2011</v>
+      </c>
+      <c r="G11">
+        <v>4917</v>
+      </c>
+      <c r="H11">
+        <v>4455</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -646,6 +674,27 @@
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2013</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>2013</v>
+      </c>
+      <c r="G12">
+        <v>4770</v>
+      </c>
+      <c r="H12">
+        <v>4455</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -667,10 +716,10 @@
         <v>2016</v>
       </c>
       <c r="G13">
-        <v>22000</v>
+        <v>4582</v>
       </c>
       <c r="H13" s="6">
-        <v>4581</v>
+        <v>4455</v>
       </c>
       <c r="I13">
         <v>2</v>
